--- a/portfolio/요구사항 명세서_ver1.1.xlsx
+++ b/portfolio/요구사항 명세서_ver1.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JH_Project\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB38822-1E40-4C24-841C-930E3A09B472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MZ비교분석 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 조회 결과 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,11 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능2
-(MZ비교분석)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 명세서
 (MZ세대 분석서비스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,13 +623,22 @@
   </si>
   <si>
     <t>유저의 설문 정보를 화면 중앙에 띄워주며, 사용자가 이 정보를 수정하면 즉각적으로 해당 정보에 따른 예상 만족도를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ 통계 보기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능2
+(MZ 통계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,24 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -825,6 +806,24 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,11 +1138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A4:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1157,22 +1156,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="11">
         <v>45134</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1189,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1200,282 +1199,282 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
+      <c r="B5" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>72</v>
+      <c r="B17" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>43</v>
@@ -1484,13 +1483,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>46</v>
@@ -1499,13 +1498,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>47</v>
@@ -1514,71 +1513,71 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1588,14 +1587,14 @@
         <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1603,29 +1602,29 @@
         <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1638,11 +1637,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
@@ -1653,11 +1652,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="16"/>
+        <v>123</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
@@ -1668,11 +1667,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>31</v>
       </c>
@@ -1683,11 +1682,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
@@ -1698,12 +1697,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>70</v>
+      <c r="B37" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>53</v>
@@ -1712,29 +1711,29 @@
         <v>54</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
       </c>
@@ -1742,14 +1741,14 @@
         <v>54</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
         <v>56</v>
       </c>
@@ -1760,43 +1759,43 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="B41" s="14"/>
       <c r="C41" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="B43" s="16"/>
       <c r="C43" s="5" t="s">
         <v>32</v>
       </c>
@@ -1807,92 +1806,63 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
